--- a/speedTest/JC/result.xlsx
+++ b/speedTest/JC/result.xlsx
@@ -8,56 +8,130 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Reproduction-Copa\speedTest\JC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51FBA89-4464-4614-A059-AFA7A7B82E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC3095-7C84-46E4-9665-514CCCC867FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$J$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$J$2:$J$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$N$2:$N$31</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$R$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$R$2:$R$31</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$V$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$V$2:$V$31</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$Z$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$AB$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$P$2:$P$31</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$T$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$T$2:$T$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$X$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$X$2:$X$31</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$2:$H$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$L$2:$L$31</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$P$2:$P$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$J$2:$J$33</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">Sheet1!$J$2:$J$33</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">Sheet1!$K$2:$K$33</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">Sheet1!$L$2:$L$33</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">Sheet1!$M$2:$M$33</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$K$2:$K$33</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">Sheet1!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">Sheet1!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$L$2:$L$33</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$M$2:$M$33</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$J$2:$J$33</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$K$2:$K$33</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$L$2:$L$33</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$M$2:$M$33</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$J$2:$J$33</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$K$2:$K$33</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$L$2:$L$33</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$K$2:$K$33</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$M$2:$M$33</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$J$2:$J$33</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$K$2:$K$33</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$L$2:$L$33</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$M$2:$M$33</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$J$2:$J$33</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$K$2:$K$33</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$L$2:$L$33</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$M$2:$M$33</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$AB$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$AB$2:$AB$31</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$L$2:$L$33</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$H$2:$H$31</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$M$2:$M$31</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$P$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$P$2:$P$31</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$T$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$T$2:$T$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$X$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$X$2:$X$31</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$J$2:$J$31</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$N$2:$N$31</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$M$2:$M$33</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$R$2:$R$31</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$V$1</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$V$2:$V$31</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$Z$1</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$Z$2:$Z$31</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$J$2:$J$33</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$K$2:$K$33</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$L$2:$L$33</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$M$2:$M$33</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Sheet1!$J$2:$J$33</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">Sheet1!$K$2:$K$33</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">Sheet1!$L$2:$L$33</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$J$2:$J$33</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">Sheet1!$M$2:$M$33</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">Sheet1!$J$1</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">Sheet1!$J$2:$J$33</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">Sheet1!$K$1</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">Sheet1!$K$2:$K$33</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">Sheet1!$L$2:$L$33</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">Sheet1!$M$2:$M$33</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -225,37 +299,37 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.63</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.65</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.67</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.69</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.71</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.73</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.75</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -291,7 +365,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EF232818-01A1-4BDB-A1D6-4F3D80D89B66}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.62</cx:f>
               <cx:v>JCbbr1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -304,7 +378,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{883302E3-5422-4DCA-8BD3-3750466A85C2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.64</cx:f>
               <cx:v>JCbbrplus1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -317,7 +391,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F24FC121-882E-4AB2-B91E-0A8B51E1C133}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.66</cx:f>
               <cx:v>JCcubic1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -330,7 +404,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9F49546F-762C-4D9F-9184-7661100DCC1E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.68</cx:f>
               <cx:v>JClotserver1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -343,7 +417,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{ED3799B1-A27F-4BE4-BF24-A47A410B6720}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.70</cx:f>
               <cx:v>JCnanqinlang1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -356,7 +430,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{97EF7B83-7EEA-4AFF-B9DE-034B1646E2BF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.72</cx:f>
               <cx:v>JCreno1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -369,7 +443,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9AC76A11-4A2D-480B-8122-6C0AB7826D7D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.74</cx:f>
               <cx:v>JCtsunami1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -509,48 +583,47 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{4CE16EE6-7396-45F3-ABFE-32600708E4F8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.50</cx:f>
               <cx:v>JCbbr32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -563,7 +636,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CC18B5B5-AE6E-451D-AA5E-AB18F580B920}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.52</cx:f>
               <cx:v>JCbbrplus32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -576,7 +649,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DFFE6C3F-3EE3-4D56-95A3-6D334B7EA8D6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.54</cx:f>
               <cx:v>JCcubic32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -589,7 +662,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FA02A212-5E11-47CF-A050-7A6B53D2CD91}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.56</cx:f>
               <cx:v>JClotserver32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -602,7 +675,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1532C197-507E-4491-AC8C-538062E6F0D0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.58</cx:f>
               <cx:v>JCnanqinlang32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -615,7 +688,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AE9D1B13-1DAF-4054-901D-765DC84B25C1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.60</cx:f>
               <cx:v>JCreno32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -628,7 +701,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FFC61D02-48AC-4372-BDB6-5CF71AD2840A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.48</cx:f>
               <cx:v>JCtsunami32</cx:v>
             </cx:txData>
           </cx:tx>
@@ -639,16 +712,458 @@
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="0">
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Different Congestion Control</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Send Rate/Mbps</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.109</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.111</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.113</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.115</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D43A2153-E6FA-4096-A8A9-ABA5D363B88D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.108</cx:f>
+              <cx:v>JCbbr1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2200E275-2FFA-4562-8509-D45F5D03EC53}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.110</cx:f>
+              <cx:v>JCbbr8</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B90573BE-C36D-4E78-AC4C-6F04107467D1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.112</cx:f>
+              <cx:v>JCbbr16</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6084D67C-B792-4394-985A-EB5A6465B45E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.114</cx:f>
+              <cx:v>JCbbr32</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
         <cx:catScaling gapWidth="1"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Send Rate/Mbps</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.85</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.87</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.89</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.91</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{75765E67-AC87-41AE-931D-8979546F27A6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.84</cx:f>
+              <cx:v>JCcubic1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{86D3EF8B-5FB6-41C6-9EA4-61B35250DFD8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.86</cx:f>
+              <cx:v>JCcubic8</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{1C40F338-AA8F-4E82-BEA3-07D71E92025B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.88</cx:f>
+              <cx:v>JCcubic16</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{9FF4F8CB-A676-452B-86F1-28742A7E7C0D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.90</cx:f>
+              <cx:v>JCcubic32</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  </a:rPr>
+                  <a:t>Send Rate/Mbps</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -733,6 +1248,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1763,20 +2358,1050 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>259715</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1812,8 +3437,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="190500" y="7193280"/>
-              <a:ext cx="9387840" cy="6598920"/>
+              <a:off x="5349875" y="6659245"/>
+              <a:ext cx="10245090" cy="6575425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1845,16 +3470,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10794</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1890,8 +3515,164 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9875520" y="8835390"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5344794" y="6644639"/>
+              <a:ext cx="10244455" cy="6579235"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>244927</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>154213</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="图表 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA1E94B-D938-46A3-81DD-937FF164B56D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5306785" y="6903357"/>
+              <a:ext cx="10169071" cy="6857999"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>170543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="图表 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38763788-0028-4C8F-9303-18FBA2BCAEB4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5334000" y="6631668"/>
+              <a:ext cx="10239375" cy="6719207"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2189,24 +3970,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -2224,13 +4005,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -2281,18 +4062,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>0.904296875</v>
       </c>
       <c r="C2" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="D2" s="1">
         <v>24.1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>42.2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10.7</v>
       </c>
       <c r="F2" s="1">
         <v>1.46</v>
@@ -2310,13 +4091,13 @@
         <v>0.384765625</v>
       </c>
       <c r="K2" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="L2" s="1">
         <v>1.97</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>11.8</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2.94</v>
       </c>
       <c r="N2" s="1">
         <v>1.61</v>
@@ -2367,18 +4148,18 @@
         <v>9.59</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="D3" s="1">
         <v>26.9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>45.1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>12.8</v>
       </c>
       <c r="F3" s="1">
         <v>0.84765625</v>
@@ -2396,13 +4177,13 @@
         <v>0.2373046875</v>
       </c>
       <c r="K3" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L3" s="1">
         <v>4.96</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>7.99</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.6</v>
       </c>
       <c r="N3" s="1">
         <v>0.7529296875</v>
@@ -2453,18 +4234,18 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="D4" s="1">
         <v>17.8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>39.700000000000003</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9.34</v>
       </c>
       <c r="F4" s="1">
         <v>1.1399999999999999</v>
@@ -2482,13 +4263,13 @@
         <v>0.2939453125</v>
       </c>
       <c r="K4" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="L4" s="1">
         <v>4.43</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>7.14</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2.25</v>
       </c>
       <c r="N4" s="1">
         <v>1.6</v>
@@ -2539,18 +4320,18 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
+        <v>5.04</v>
+      </c>
+      <c r="D5" s="1">
         <v>9.0500000000000007</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>15.1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5.04</v>
       </c>
       <c r="F5" s="1">
         <v>1.61</v>
@@ -2568,13 +4349,13 @@
         <v>0.3505859375</v>
       </c>
       <c r="K5" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="L5" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>4.97</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1.07</v>
       </c>
       <c r="N5" s="1">
         <v>1.06</v>
@@ -2625,18 +4406,18 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1.45</v>
       </c>
       <c r="C6" s="1">
+        <v>7.76</v>
+      </c>
+      <c r="D6" s="1">
         <v>8.4499999999999993</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>28.7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7.76</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -2654,13 +4435,13 @@
         <v>0.2265625</v>
       </c>
       <c r="K6" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="L6" s="1">
         <v>2.84</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>5.45</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1.07</v>
       </c>
       <c r="N6" s="1">
         <v>2.08</v>
@@ -2711,18 +4492,18 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>1.18</v>
       </c>
       <c r="C7" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="D7" s="1">
         <v>14.9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>22</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.38</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2740,13 +4521,13 @@
         <v>0.158203125</v>
       </c>
       <c r="K7" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="L7" s="1">
         <v>1.82</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>3.94</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.08</v>
       </c>
       <c r="N7" s="1">
         <v>2.31</v>
@@ -2797,18 +4578,18 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>1.67</v>
       </c>
       <c r="C8" s="1">
+        <v>7.08</v>
+      </c>
+      <c r="D8" s="1">
         <v>5.16</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>11.2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7.08</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2826,13 +4607,13 @@
         <v>0.2490234375</v>
       </c>
       <c r="K8" s="1">
+        <v>0.7236328125</v>
+      </c>
+      <c r="L8" s="1">
         <v>2.54</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>4.66</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.7236328125</v>
       </c>
       <c r="N8" s="1">
         <v>2.06</v>
@@ -2883,18 +4664,18 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="D9" s="1">
         <v>1.99</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>10.9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.16</v>
       </c>
       <c r="F9" s="1">
         <v>1.73</v>
@@ -2912,13 +4693,13 @@
         <v>0.1357421875</v>
       </c>
       <c r="K9" s="1">
+        <v>0.587890625</v>
+      </c>
+      <c r="L9" s="1">
         <v>2.06</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>3.29</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.587890625</v>
       </c>
       <c r="N9" s="1">
         <v>3.34</v>
@@ -2969,18 +4750,18 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="D10" s="1">
         <v>7.18</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>22.6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.96</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2998,13 +4779,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K10" s="1">
+        <v>0.587890625</v>
+      </c>
+      <c r="L10" s="1">
         <v>1.58</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>4.47</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.587890625</v>
       </c>
       <c r="N10" s="1">
         <v>3.34</v>
@@ -3055,18 +4836,18 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="D11" s="1">
         <v>10.9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>21.9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3.74</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3084,13 +4865,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K11" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L11" s="1">
         <v>1.97</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>3.75</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1.1100000000000001</v>
       </c>
       <c r="N11" s="1">
         <v>3.08</v>
@@ -3141,18 +4922,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
+        <v>4.79</v>
+      </c>
+      <c r="D12" s="1">
         <v>8.91</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>7.52</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4.79</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -3170,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="1">
+        <v>0.859375</v>
+      </c>
+      <c r="L12" s="1">
         <v>1.48</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>3.68</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.859375</v>
       </c>
       <c r="N12" s="1">
         <v>3.34</v>
@@ -3227,18 +5008,18 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>1.54</v>
       </c>
       <c r="C13" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="D13" s="1">
         <v>11.3</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>7.87</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.14</v>
       </c>
       <c r="F13" s="1">
         <v>1.67</v>
@@ -3256,13 +5037,13 @@
         <v>9.0624999999999997E-2</v>
       </c>
       <c r="K13" s="1">
+        <v>0.927734375</v>
+      </c>
+      <c r="L13" s="1">
         <v>2.09</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>4.12</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.927734375</v>
       </c>
       <c r="N13" s="1">
         <v>4.1100000000000003</v>
@@ -3313,18 +5094,18 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="D14" s="1">
         <v>3.29</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>11.9</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.07</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -3342,13 +5123,13 @@
         <v>0.1357421875</v>
       </c>
       <c r="K14" s="1">
+        <v>0.916015625</v>
+      </c>
+      <c r="L14" s="1">
         <v>1.92</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>3.59</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.916015625</v>
       </c>
       <c r="N14" s="1">
         <v>4.37</v>
@@ -3399,18 +5180,18 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>0</v>
       </c>
       <c r="C15" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D15" s="1">
         <v>7.89</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>21.7</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2.4500000000000002</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3428,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
+        <v>0.41796875</v>
+      </c>
+      <c r="L15" s="1">
         <v>1.44</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>3.94</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.41796875</v>
       </c>
       <c r="N15" s="1">
         <v>3.08</v>
@@ -3485,18 +5266,18 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>0</v>
       </c>
       <c r="C16" s="1">
+        <v>6.04</v>
+      </c>
+      <c r="D16" s="1">
         <v>7.82</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>4.51</v>
-      </c>
-      <c r="E16" s="1">
-        <v>6.04</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3514,13 +5295,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K16" s="1">
+        <v>0.9501953125</v>
+      </c>
+      <c r="L16" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>4.08</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.9501953125</v>
       </c>
       <c r="N16" s="1">
         <v>3.34</v>
@@ -3571,18 +5352,18 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="D17" s="1">
         <v>7.83</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>17.8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4.7</v>
       </c>
       <c r="F17" s="1">
         <v>1.56</v>
@@ -3600,13 +5381,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K17" s="1">
+        <v>0.65625</v>
+      </c>
+      <c r="L17" s="1">
         <v>1.62</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>3.89</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.65625</v>
       </c>
       <c r="N17" s="1">
         <v>6.17</v>
@@ -3657,18 +5438,18 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>1.63</v>
       </c>
       <c r="C18" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="D18" s="1">
         <v>7.32</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>14.4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2.09</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3686,13 +5467,13 @@
         <v>0.158203125</v>
       </c>
       <c r="K18" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="L18" s="1">
         <v>1.62</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>4.08</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1.18</v>
       </c>
       <c r="N18" s="1">
         <v>4.37</v>
@@ -3743,18 +5524,18 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>0</v>
       </c>
       <c r="C19" s="1">
+        <v>0.9501953125</v>
+      </c>
+      <c r="D19" s="1">
         <v>7.82</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>8.31</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.9501953125</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3772,13 +5553,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K19" s="1">
+        <v>0.4521484375</v>
+      </c>
+      <c r="L19" s="1">
         <v>1.85</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>4.33</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.4521484375</v>
       </c>
       <c r="N19" s="1">
         <v>6.42</v>
@@ -3829,18 +5610,18 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>9.7799999999999994</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2.08</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3858,13 +5639,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K20" s="1">
+        <v>0.9052734375</v>
+      </c>
+      <c r="L20" s="1">
         <v>2.36</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>4.3099999999999996</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.9052734375</v>
       </c>
       <c r="N20" s="1">
         <v>8.48</v>
@@ -3915,18 +5696,18 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>0</v>
       </c>
       <c r="C21" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="D21" s="1">
         <v>3.77</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>11.9</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5.22</v>
       </c>
       <c r="F21" s="1">
         <v>1.56</v>
@@ -3944,13 +5725,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K21" s="1">
+        <v>0.76953125</v>
+      </c>
+      <c r="L21" s="1">
         <v>1.88</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>4.22</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.76953125</v>
       </c>
       <c r="N21" s="1">
         <v>5.4</v>
@@ -4001,18 +5782,18 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>1.57</v>
       </c>
       <c r="C22" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="D22" s="1">
         <v>9.91</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>12.6</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3.36</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -4030,13 +5811,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K22" s="1">
+        <v>0.927734375</v>
+      </c>
+      <c r="L22" s="1">
         <v>2.06</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>4.7</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.927734375</v>
       </c>
       <c r="N22" s="1">
         <v>4.37</v>
@@ -4087,18 +5868,18 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="D23" s="1">
         <v>4.63</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>15.1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>6.26</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -4116,13 +5897,13 @@
         <v>0</v>
       </c>
       <c r="K23" s="1">
+        <v>0.7919921875</v>
+      </c>
+      <c r="L23" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>4.63</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.7919921875</v>
       </c>
       <c r="N23" s="1">
         <v>3.08</v>
@@ -4173,18 +5954,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>0</v>
       </c>
       <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
         <v>3.13</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>19.600000000000001</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -4202,13 +5983,13 @@
         <v>0.1357421875</v>
       </c>
       <c r="K24" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="L24" s="1">
         <v>1.85</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>4.5199999999999996</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1.07</v>
       </c>
       <c r="N24" s="1">
         <v>5.4</v>
@@ -4259,18 +6040,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="D25" s="1">
         <v>3.65</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>5.09</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.57</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -4288,13 +6069,13 @@
         <v>0.1357421875</v>
       </c>
       <c r="K25" s="1">
+        <v>0.6787109375</v>
+      </c>
+      <c r="L25" s="1">
         <v>1.81</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>4.1900000000000004</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.6787109375</v>
       </c>
       <c r="N25" s="1">
         <v>9.51</v>
@@ -4345,18 +6126,18 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>0</v>
       </c>
       <c r="C26" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D26" s="1">
         <v>9.85</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>12.3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4.7300000000000004</v>
       </c>
       <c r="F26" s="1">
         <v>1.56</v>
@@ -4374,13 +6155,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K26" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L26" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>3.61</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1.1599999999999999</v>
       </c>
       <c r="N26" s="1">
         <v>4.37</v>
@@ -4431,18 +6212,18 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>1.56</v>
       </c>
       <c r="C27" s="1">
+        <v>4.93</v>
+      </c>
+      <c r="D27" s="1">
         <v>5.18</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>10.4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4.93</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -4460,13 +6241,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K27" s="1">
+        <v>0.587890625</v>
+      </c>
+      <c r="L27" s="1">
         <v>1.51</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>4.12</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.587890625</v>
       </c>
       <c r="N27" s="1">
         <v>5.14</v>
@@ -4517,18 +6298,18 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="D28" s="1">
         <v>7.3</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>13.9</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1.04</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -4546,13 +6327,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K28" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="L28" s="1">
         <v>2.69</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>3.43</v>
-      </c>
-      <c r="M28" s="1">
-        <v>1.25</v>
       </c>
       <c r="N28" s="1">
         <v>9.77</v>
@@ -4603,18 +6384,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>0</v>
       </c>
       <c r="C29" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="D29" s="1">
         <v>2.6</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>21.2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3.55</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -4632,13 +6413,13 @@
         <v>0.1357421875</v>
       </c>
       <c r="K29" s="1">
+        <v>0.9501953125</v>
+      </c>
+      <c r="L29" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>3.87</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.9501953125</v>
       </c>
       <c r="N29" s="1">
         <v>8.48</v>
@@ -4689,18 +6470,18 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>0</v>
       </c>
       <c r="C30" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="D30" s="1">
         <v>12</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>6.25</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3.46</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -4718,13 +6499,13 @@
         <v>0.1357421875</v>
       </c>
       <c r="K30" s="1">
+        <v>0.3388671875</v>
+      </c>
+      <c r="L30" s="1">
         <v>1.76</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>4.45</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.3388671875</v>
       </c>
       <c r="N30" s="1">
         <v>4.37</v>
@@ -4775,18 +6556,18 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>1.56</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
         <v>12</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1.81</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -4804,13 +6585,13 @@
         <v>0.11328125</v>
       </c>
       <c r="K31" s="1">
+        <v>0.927734375</v>
+      </c>
+      <c r="L31" s="1">
         <v>2.12</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>3.73</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0.927734375</v>
       </c>
       <c r="N31" s="1">
         <v>8.48</v>
@@ -4861,18 +6642,18 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>0.42578125</v>
       </c>
       <c r="C32" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D32" s="1">
         <v>8.35</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>16.8</v>
-      </c>
-      <c r="E32" s="1">
-        <v>4.1399999999999997</v>
       </c>
       <c r="F32" s="1">
         <v>0.4287109375</v>
@@ -4890,13 +6671,13 @@
         <v>0.14453125</v>
       </c>
       <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
         <v>2.19</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>4.63</v>
-      </c>
-      <c r="M32" s="1">
-        <v>1</v>
       </c>
       <c r="N32" s="1">
         <v>4.4400000000000004</v>
@@ -4947,18 +6728,18 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>0.29296875</v>
       </c>
       <c r="C33" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="D33" s="1">
         <v>6.33</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>12.3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2.94</v>
       </c>
       <c r="F33" s="1">
         <v>0.361328125</v>
@@ -4976,13 +6757,13 @@
         <v>0.1376953125</v>
       </c>
       <c r="K33" s="1">
+        <v>0.927734375</v>
+      </c>
+      <c r="L33" s="1">
         <v>2.08</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>4.63</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.927734375</v>
       </c>
       <c r="N33" s="1">
         <v>4.1900000000000004</v>
